--- a/расчет длины.xlsx
+++ b/расчет длины.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>target</t>
   </si>
@@ -40,12 +40,6 @@
   </si>
   <si>
     <t>do</t>
-  </si>
-  <si>
-    <t>nSQ2</t>
-  </si>
-  <si>
-    <t>n_do</t>
   </si>
   <si>
     <t>bd</t>
@@ -402,7 +396,7 @@
   <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,18 +411,6 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I2" s="1"/>
-      <c r="Q2">
-        <v>794</v>
-      </c>
-      <c r="R2">
-        <v>8830</v>
-      </c>
-      <c r="S2">
-        <v>10432</v>
-      </c>
-      <c r="T2">
-        <v>12596</v>
-      </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -441,7 +423,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -456,29 +438,11 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" t="s">
         <v>9</v>
       </c>
-      <c r="O3" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3" s="3">
-        <v>2</v>
-      </c>
-      <c r="S3" s="3">
-        <v>3</v>
-      </c>
-      <c r="T3" s="3">
-        <v>4</v>
-      </c>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="W3" s="3"/>
     </row>
@@ -487,51 +451,30 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>8826</v>
+        <v>9706</v>
       </c>
       <c r="C4">
-        <v>8778</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
+        <v>9727</v>
       </c>
       <c r="E4">
-        <v>8783</v>
+        <v>9813</v>
       </c>
       <c r="F4">
-        <v>400</v>
+        <v>804</v>
       </c>
       <c r="G4">
-        <v>-5</v>
+        <v>-86</v>
       </c>
       <c r="I4" s="4">
         <f>IF(D4,"---",-C4+B4+E4+(F4*D4))</f>
-        <v>8831</v>
+        <v>9792</v>
       </c>
       <c r="J4" s="2" t="str">
         <f t="shared" ref="J4:J23" si="0">IF(D4,(F4*(B4-E4+F4)-(G4*F4))/(G4-F4)+F4,"---")</f>
         <v>---</v>
       </c>
-      <c r="M4">
-        <v>780</v>
-      </c>
-      <c r="N4">
-        <f>K4*M4/F4</f>
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <f>E4+N4+D4*(F4-M4)</f>
-        <v>8783</v>
-      </c>
-      <c r="Q4">
-        <v>800</v>
-      </c>
-      <c r="R4" s="3">
-        <v>8831</v>
-      </c>
-      <c r="S4" s="3">
-        <v>10435</v>
-      </c>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="W4" s="3"/>
@@ -541,41 +484,27 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>10452</v>
+        <v>11466</v>
       </c>
       <c r="C5">
-        <v>9658</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
+        <v>11456</v>
       </c>
       <c r="E5">
-        <v>9641</v>
+        <v>11464</v>
       </c>
       <c r="F5">
-        <v>400</v>
+        <v>804</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" ref="I5:I23" si="1">IF(D5,"---",-C5+B5+E5+(F5*D5))</f>
-        <v>10435</v>
+        <v>11474</v>
       </c>
       <c r="J5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>---</v>
-      </c>
-      <c r="M5">
-        <v>790</v>
-      </c>
-      <c r="N5">
-        <f t="shared" ref="N5:N23" si="2">K5*M5/F5</f>
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <f t="shared" ref="O5:O23" si="3">E5+N5-G5*(F5-M5)</f>
-        <v>16271</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -583,73 +512,52 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>12640</v>
+        <v>12772</v>
       </c>
       <c r="C6">
-        <v>12619</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
+        <v>12760</v>
       </c>
       <c r="E6">
-        <v>12580</v>
+        <v>12772</v>
       </c>
       <c r="F6">
-        <v>400</v>
+        <v>804</v>
       </c>
       <c r="G6">
-        <v>40</v>
+        <v>-12</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="1"/>
-        <v>12601</v>
+        <v>12784</v>
       </c>
       <c r="J6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>---</v>
       </c>
-      <c r="M6">
-        <v>790</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="3"/>
-        <v>28180</v>
-      </c>
       <c r="Q6" s="3"/>
-      <c r="R6" s="3">
-        <f>S4-R4</f>
-        <v>1604</v>
-      </c>
-      <c r="S6">
-        <f>S4-Q4/2</f>
-        <v>10035</v>
-      </c>
+      <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>9652</v>
+        <v>10666</v>
       </c>
       <c r="C7">
-        <v>9696</v>
+        <v>10657</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>10435</v>
+        <v>11474</v>
       </c>
       <c r="F7">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>-13</v>
       </c>
       <c r="I7" s="4" t="str">
         <f t="shared" si="1"/>
@@ -657,107 +565,35 @@
       </c>
       <c r="J7" s="2">
         <f>IF(D7,(F7*(B7-E7+F7)-(G7*F7))/(G7-F7)+F7,"---")</f>
-        <v>794.92385786802026</v>
-      </c>
-      <c r="M7">
-        <v>790</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="3"/>
-        <v>10315</v>
+        <v>795.14320685434518</v>
       </c>
       <c r="Q7" s="3"/>
-      <c r="R7" s="3">
-        <f>R6/2</f>
-        <v>802</v>
-      </c>
+      <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>9652</v>
-      </c>
-      <c r="C8">
-        <v>9640</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>10435</v>
-      </c>
-      <c r="F8">
-        <v>807</v>
-      </c>
-      <c r="G8">
-        <v>12</v>
-      </c>
-      <c r="I8" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>---</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" si="0"/>
-        <v>794.81886792452826</v>
-      </c>
-      <c r="M8">
-        <v>780</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="3"/>
-        <v>10111</v>
+      <c r="I8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>---</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>10026</v>
-      </c>
-      <c r="C9">
-        <v>10027</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>10435</v>
-      </c>
-      <c r="F9">
-        <v>794</v>
-      </c>
-      <c r="G9">
-        <v>386</v>
-      </c>
-      <c r="I9" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>---</v>
-      </c>
-      <c r="J9" s="2">
-        <f t="shared" si="0"/>
-        <v>795.9460784313726</v>
-      </c>
-      <c r="M9">
-        <v>780</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="3"/>
-        <v>5031</v>
+      <c r="I9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>---</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -772,17 +608,6 @@
         <f t="shared" si="0"/>
         <v>---</v>
       </c>
-      <c r="M10">
-        <v>780</v>
-      </c>
-      <c r="N10" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O10" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -796,17 +621,6 @@
         <f t="shared" si="0"/>
         <v>---</v>
       </c>
-      <c r="M11">
-        <v>780</v>
-      </c>
-      <c r="N11" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O11" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -820,17 +634,6 @@
         <f t="shared" si="0"/>
         <v>---</v>
       </c>
-      <c r="M12">
-        <v>780</v>
-      </c>
-      <c r="N12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O12" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -844,17 +647,6 @@
         <f t="shared" si="0"/>
         <v>---</v>
       </c>
-      <c r="M13">
-        <v>780</v>
-      </c>
-      <c r="N13" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O13" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -868,17 +660,6 @@
         <f t="shared" si="0"/>
         <v>---</v>
       </c>
-      <c r="M14">
-        <v>780</v>
-      </c>
-      <c r="N14" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O14" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -892,17 +673,6 @@
         <f t="shared" si="0"/>
         <v>---</v>
       </c>
-      <c r="M15">
-        <v>780</v>
-      </c>
-      <c r="N15" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O15" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -916,19 +686,8 @@
         <f t="shared" si="0"/>
         <v>---</v>
       </c>
-      <c r="M16">
-        <v>780</v>
-      </c>
-      <c r="N16" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O16" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -940,19 +699,8 @@
         <f t="shared" si="0"/>
         <v>---</v>
       </c>
-      <c r="M17">
-        <v>780</v>
-      </c>
-      <c r="N17" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O17" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -964,19 +712,8 @@
         <f t="shared" si="0"/>
         <v>---</v>
       </c>
-      <c r="M18">
-        <v>780</v>
-      </c>
-      <c r="N18" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O18" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -988,19 +725,8 @@
         <f t="shared" si="0"/>
         <v>---</v>
       </c>
-      <c r="M19">
-        <v>780</v>
-      </c>
-      <c r="N19" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O19" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1012,19 +738,8 @@
         <f t="shared" si="0"/>
         <v>---</v>
       </c>
-      <c r="M20">
-        <v>780</v>
-      </c>
-      <c r="N20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O20" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1036,19 +751,8 @@
         <f t="shared" si="0"/>
         <v>---</v>
       </c>
-      <c r="M21">
-        <v>780</v>
-      </c>
-      <c r="N21" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O21" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1060,19 +764,8 @@
         <f t="shared" si="0"/>
         <v>---</v>
       </c>
-      <c r="M22">
-        <v>780</v>
-      </c>
-      <c r="N22" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O22" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1084,22 +777,11 @@
         <f t="shared" si="0"/>
         <v>---</v>
       </c>
-      <c r="M23">
-        <v>780</v>
-      </c>
-      <c r="N23" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O23" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C28">
         <f>C7-B7</f>
-        <v>44</v>
+        <v>-9</v>
       </c>
     </row>
   </sheetData>
